--- a/data/trans_dic/P16A01-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P16A01-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.09190827778987171</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.09754960893350349</v>
+        <v>0.09754960893350351</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.07015059740679942</v>
@@ -697,7 +697,7 @@
         <v>0.08426880453692123</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.08747300637324419</v>
+        <v>0.08747300637324421</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06875023492919001</v>
+        <v>0.06647513811422052</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08339463631578427</v>
+        <v>0.08428308458869049</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06123469448432962</v>
+        <v>0.06210719198636676</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05100541838485191</v>
+        <v>0.05346612732303601</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0448235519485373</v>
+        <v>0.04392897762133268</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07665160937677545</v>
+        <v>0.07923781148298016</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07634766015038258</v>
+        <v>0.07427215384316363</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07653558139290345</v>
+        <v>0.0762973126587194</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05669993092217521</v>
+        <v>0.05750481345188087</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0863310023211572</v>
+        <v>0.08511406450573428</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.07320829344049851</v>
+        <v>0.07300121780235237</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07205800906649273</v>
+        <v>0.07185714307229667</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1167167107568286</v>
+        <v>0.1137731571410512</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1218522776164819</v>
+        <v>0.1229518131549469</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09170910377919334</v>
+        <v>0.09222702595038519</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1045637343501067</v>
+        <v>0.1095690269607605</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07554526812208606</v>
+        <v>0.07491209566386807</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1140948535519886</v>
+        <v>0.1149231901890205</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1088130102267707</v>
+        <v>0.108499771975634</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1240771367239957</v>
+        <v>0.1240809391595759</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08393272777309238</v>
+        <v>0.08363887713668952</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1119210801011059</v>
+        <v>0.1112115648650478</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09656802254174227</v>
+        <v>0.09663301740782984</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1064357686660012</v>
+        <v>0.1062409246577937</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.07042426137803255</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.06011666470340972</v>
+        <v>0.06011666470340973</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.07126981050180181</v>
@@ -821,7 +821,7 @@
         <v>0.07207457268260399</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.07389379291915757</v>
+        <v>0.07389379291915758</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.07055729782904682</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05642639315877095</v>
+        <v>0.05457592832665249</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08446170080722101</v>
+        <v>0.08457346325351139</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05460656556141839</v>
+        <v>0.05620670190388734</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04580945180036645</v>
+        <v>0.04497669275983433</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05699415390615994</v>
+        <v>0.05690547732422265</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05694988789805634</v>
+        <v>0.05708767968702505</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05695998225739627</v>
+        <v>0.05588973937608323</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06031899056288397</v>
+        <v>0.06254855424234314</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06068511381533585</v>
+        <v>0.05964425483070616</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07460391560769442</v>
+        <v>0.07421697264391931</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0595998689809298</v>
+        <v>0.05944441914366747</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05760092565350389</v>
+        <v>0.0574409003176193</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08766322234568134</v>
+        <v>0.08620602612081046</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1263601565801527</v>
+        <v>0.1275944933916391</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09173057878221572</v>
+        <v>0.08936819053976638</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08001759315914518</v>
+        <v>0.08030564186099987</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09066891941254891</v>
+        <v>0.08970532528133268</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08961494921228855</v>
+        <v>0.08946028196616425</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0898967170697882</v>
+        <v>0.08928658996278588</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08900875815662405</v>
+        <v>0.09069555272876445</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0831306780245992</v>
+        <v>0.08321423474721065</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1003144585871176</v>
+        <v>0.09970693024569599</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.08231713439655082</v>
+        <v>0.08280839764357215</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08067355408336659</v>
+        <v>0.07930896337724475</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.08817554401368437</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.06755743236236512</v>
+        <v>0.06755743236236514</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04550006518231315</v>
+        <v>0.04501581637471738</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05780796961829086</v>
+        <v>0.05824545873016612</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07574811111415999</v>
+        <v>0.07446777113541884</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05209985314815301</v>
+        <v>0.05161317937561419</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03665317321644775</v>
+        <v>0.03636062879235931</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06488824024501608</v>
+        <v>0.06521413774885258</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06379130306681617</v>
+        <v>0.06293420555493837</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05549408944442551</v>
+        <v>0.05429557504726226</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0454473712367679</v>
+        <v>0.04543655113657155</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06549217882890968</v>
+        <v>0.06757060700875452</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.07288042848775426</v>
+        <v>0.07549974018283696</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05655443422329094</v>
+        <v>0.05776453920167728</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07375451527405413</v>
+        <v>0.07362018370245206</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09722491057996457</v>
+        <v>0.0965582048856639</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1164422721593603</v>
+        <v>0.1156802928741013</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08761154204353268</v>
+        <v>0.08883734510749688</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06438736879120149</v>
+        <v>0.0658238362005114</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1045824778718623</v>
+        <v>0.1038155610006765</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1037056931245522</v>
+        <v>0.1047952024103909</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08327936329351134</v>
+        <v>0.0814383276268017</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0653847858620052</v>
+        <v>0.0664827062676142</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.09468731142280404</v>
+        <v>0.09357809959289695</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1014335649497716</v>
+        <v>0.1041914145530661</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07931560310302471</v>
+        <v>0.08051268102306945</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.07538217333966876</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.08330724492195804</v>
+        <v>0.08330724492195805</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04933862659225656</v>
+        <v>0.0499347299006348</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07168442165203816</v>
+        <v>0.07165575347372261</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04508841007938668</v>
+        <v>0.04459687331326807</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06902835406513834</v>
+        <v>0.0678103544638906</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06107693115997334</v>
+        <v>0.0604880122625532</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05710345972082221</v>
+        <v>0.05619358048704678</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06241690372451377</v>
+        <v>0.06232460397409163</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06260428633005095</v>
+        <v>0.06236985393240384</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05959172221554061</v>
+        <v>0.0618105268114835</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.07290616045876049</v>
+        <v>0.07232938796573009</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0586918454386112</v>
+        <v>0.05914005741382918</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06965370894273355</v>
+        <v>0.07012748924478139</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09457464174740256</v>
+        <v>0.0971295639876046</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1345461569158117</v>
+        <v>0.1328582006250601</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09039628289867578</v>
+        <v>0.08864272467777339</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1143612398297203</v>
+        <v>0.115099531892226</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1252305701312448</v>
+        <v>0.1231124715490398</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1106971463438359</v>
+        <v>0.1092073022436058</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1168322775101193</v>
+        <v>0.1166676984421903</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09326097881222424</v>
+        <v>0.09325756009131168</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09743973564387949</v>
+        <v>0.1003774679669502</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1125970706214759</v>
+        <v>0.112226476886546</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.09313864543368232</v>
+        <v>0.09420998936308354</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09711232023638623</v>
+        <v>0.09753371214324218</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.08028283900706326</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.07479666867500005</v>
+        <v>0.07479666867500007</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06071431108981686</v>
+        <v>0.06134936980456074</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08395429178330914</v>
+        <v>0.08452432758039263</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06797280966456813</v>
+        <v>0.06784647571646521</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06373133918315446</v>
+        <v>0.06314083357895911</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05437721817977337</v>
+        <v>0.05415867226257118</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07393932623745815</v>
+        <v>0.07303053859963343</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.0740663909591365</v>
+        <v>0.07428964396493667</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06931528806063519</v>
+        <v>0.0693868329796825</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06010848268047736</v>
+        <v>0.06008287082323117</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.08133773760657893</v>
+        <v>0.08211468939102073</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.07408977665849928</v>
+        <v>0.07363817345901102</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.06882533200187702</v>
+        <v>0.06857504284937081</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.077942433337929</v>
+        <v>0.07942722839389531</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1047952789277722</v>
+        <v>0.1072387959979063</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08656772026992676</v>
+        <v>0.08740253155758657</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.08339080556349693</v>
+        <v>0.08348345957949881</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07099616740837479</v>
+        <v>0.07162828684814858</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09357334454200834</v>
+        <v>0.0928638676690378</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09401999956201973</v>
+        <v>0.09315121239383647</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0855987111094671</v>
+        <v>0.08476735282911595</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07275275854529799</v>
+        <v>0.07277163663127528</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.09569537147570181</v>
+        <v>0.0957334748894354</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.08697602094994068</v>
+        <v>0.08670196166481167</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.08172584429446055</v>
+        <v>0.08064288368322084</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>40160</v>
+        <v>38831</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>86715</v>
+        <v>87639</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>69073</v>
+        <v>70057</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>25438</v>
+        <v>26666</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>41342</v>
+        <v>40517</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>85368</v>
+        <v>88248</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>96165</v>
+        <v>93550</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>47726</v>
+        <v>47577</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>85417</v>
+        <v>86630</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>185917</v>
+        <v>183296</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>174789</v>
+        <v>174295</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>80872</v>
+        <v>80647</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>68179</v>
+        <v>66460</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>126704</v>
+        <v>127847</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>103448</v>
+        <v>104032</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>52150</v>
+        <v>54646</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>69678</v>
+        <v>69094</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>127069</v>
+        <v>127992</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>137057</v>
+        <v>136662</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>77372</v>
+        <v>77374</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>126442</v>
+        <v>126000</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>241026</v>
+        <v>239498</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>230562</v>
+        <v>230717</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>119455</v>
+        <v>119236</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>60822</v>
+        <v>58827</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>82310</v>
+        <v>82419</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>49628</v>
+        <v>51082</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>43983</v>
+        <v>43184</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>60273</v>
+        <v>60180</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>62135</v>
+        <v>62286</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>57329</v>
+        <v>56252</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>67271</v>
+        <v>69757</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>129589</v>
+        <v>127366</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>154100</v>
+        <v>153301</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>114152</v>
+        <v>113854</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>119544</v>
+        <v>119212</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>94492</v>
+        <v>92921</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>123142</v>
+        <v>124345</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>83367</v>
+        <v>81220</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>76828</v>
+        <v>77104</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>95886</v>
+        <v>94867</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>97775</v>
+        <v>97606</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>90479</v>
+        <v>89865</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>99267</v>
+        <v>101148</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>177520</v>
+        <v>177698</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>207208</v>
+        <v>205953</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>157662</v>
+        <v>158603</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>167429</v>
+        <v>164596</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>50986</v>
+        <v>50444</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>51113</v>
+        <v>51500</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>62398</v>
+        <v>61343</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>54521</v>
+        <v>54012</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>36431</v>
+        <v>36140</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>56701</v>
+        <v>56986</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>49187</v>
+        <v>48526</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>58120</v>
+        <v>56864</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>96099</v>
+        <v>96076</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>115136</v>
+        <v>118790</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>116231</v>
+        <v>120408</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>118413</v>
+        <v>120947</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>82648</v>
+        <v>82497</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>85965</v>
+        <v>85375</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>95920</v>
+        <v>95293</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>91684</v>
+        <v>92966</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>63997</v>
+        <v>65425</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>91387</v>
+        <v>90717</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>79963</v>
+        <v>80803</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>87219</v>
+        <v>85291</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>138257</v>
+        <v>140579</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>166461</v>
+        <v>164511</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>161768</v>
+        <v>166166</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>166070</v>
+        <v>168577</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>22064</v>
+        <v>22331</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>36059</v>
+        <v>36044</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>22846</v>
+        <v>22597</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>67367</v>
+        <v>66178</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>20837</v>
+        <v>20636</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>25746</v>
+        <v>25336</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>30565</v>
+        <v>30520</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>56837</v>
+        <v>56624</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>46980</v>
+        <v>48729</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>69545</v>
+        <v>68994</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>58480</v>
+        <v>58927</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>131214</v>
+        <v>132107</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>42294</v>
+        <v>43436</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>67680</v>
+        <v>66831</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>45804</v>
+        <v>44915</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>111608</v>
+        <v>112329</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>42723</v>
+        <v>42001</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>49910</v>
+        <v>49238</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>57213</v>
+        <v>57132</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>84669</v>
+        <v>84666</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>76817</v>
+        <v>79133</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>107405</v>
+        <v>107052</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>92803</v>
+        <v>93871</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>182941</v>
+        <v>183735</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>196096</v>
+        <v>198147</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>285575</v>
+        <v>287514</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>228884</v>
+        <v>228458</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>221867</v>
+        <v>219811</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>180259</v>
+        <v>179534</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>260966</v>
+        <v>257758</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>261217</v>
+        <v>262004</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>256052</v>
+        <v>256316</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>393397</v>
+        <v>393229</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>563753</v>
+        <v>569138</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>510780</v>
+        <v>507667</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>493842</v>
+        <v>492046</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>251739</v>
+        <v>256535</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>356467</v>
+        <v>364779</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>291498</v>
+        <v>294309</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>290307</v>
+        <v>290630</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>235350</v>
+        <v>237446</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>330263</v>
+        <v>327759</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>331589</v>
+        <v>328525</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>316203</v>
+        <v>313132</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>476151</v>
+        <v>476274</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>663266</v>
+        <v>663530</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>599619</v>
+        <v>597730</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>586407</v>
+        <v>578637</v>
       </c>
     </row>
     <row r="24">
